--- a/System Level Testing-Fitbit Coach app.xlsx
+++ b/System Level Testing-Fitbit Coach app.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I302776\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\000.Marie\BYU\CIT352_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C888FB6-E3DC-414D-B669-F8079B078214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A912B67-7FC6-4B89-BD11-0BA2A3D10989}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A82B6252-2929-483E-AFBA-DC677C4F6F2A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>This is a sample test case for the Fitbit Coach app's GUI.</t>
   </si>
@@ -114,10 +114,19 @@
     <t>Verify the favorite workout</t>
   </si>
   <si>
-    <t>Go back to main Workouts menu and click View Favorites</t>
-  </si>
-  <si>
     <t>The newly added favorite workout exists.</t>
+  </si>
+  <si>
+    <t>Remove the favorite workout</t>
+  </si>
+  <si>
+    <t>Select the newly added favorite workout and press "Remove Workout"</t>
+  </si>
+  <si>
+    <t>Go back to main Workouts menu and press View Favorites</t>
+  </si>
+  <si>
+    <t>The newly added favorite workout is no longer there</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2EAB20-32A0-4FE8-83F9-C6D9C38DD1C3}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,12 +670,26 @@
         <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>16</v>
       </c>
     </row>

--- a/System Level Testing-Fitbit Coach app.xlsx
+++ b/System Level Testing-Fitbit Coach app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\000.Marie\BYU\CIT352_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A912B67-7FC6-4B89-BD11-0BA2A3D10989}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7C17E9-1718-46EF-AB20-1A4CE55C49A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A82B6252-2929-483E-AFBA-DC677C4F6F2A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>This is a sample test case for the Fitbit Coach app's GUI.</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Launch Application</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>The application launches the GUI showing the app's Dashboard.</t>
   </si>
   <si>
@@ -93,40 +90,64 @@
     <t>Select a workout</t>
   </si>
   <si>
-    <t>Select a Category and then select a workout</t>
-  </si>
-  <si>
     <t>The chosen workout loads and the button that says "Add to Favorites" should be available.</t>
   </si>
   <si>
     <t>Add a favorite workout</t>
   </si>
   <si>
-    <t>Press Workouts menu</t>
-  </si>
-  <si>
-    <t>Press Add to Favorites button</t>
-  </si>
-  <si>
     <t>The "Add to Favorites" button changes to "Remove to Favorites"</t>
   </si>
   <si>
     <t>Verify the favorite workout</t>
   </si>
   <si>
-    <t>The newly added favorite workout exists.</t>
-  </si>
-  <si>
-    <t>Remove the favorite workout</t>
-  </si>
-  <si>
-    <t>Select the newly added favorite workout and press "Remove Workout"</t>
-  </si>
-  <si>
-    <t>Go back to main Workouts menu and press View Favorites</t>
-  </si>
-  <si>
-    <t>The newly added favorite workout is no longer there</t>
+    <t>Select a category</t>
+  </si>
+  <si>
+    <t>Press "Workouts" menu</t>
+  </si>
+  <si>
+    <t>Press "Bodyweight Workouts" category</t>
+  </si>
+  <si>
+    <t>Press "Strength and Mobility" workout</t>
+  </si>
+  <si>
+    <t>The chosen category lists all workouts under it.</t>
+  </si>
+  <si>
+    <t>The newly added favorite workouts exist.</t>
+  </si>
+  <si>
+    <t>Add another favorite workout</t>
+  </si>
+  <si>
+    <t>Press "Add to Favorites" button</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Press the "X" button to go back to category list</t>
+  </si>
+  <si>
+    <t>Add favorite workout</t>
+  </si>
+  <si>
+    <t>Press "HIIT Cardio Strength" workout</t>
+  </si>
+  <si>
+    <t>Press the "X" and then "&lt;" button to go back to Workouts menu and click "View Favorites"</t>
+  </si>
+  <si>
+    <t>Remove a favorite workout</t>
+  </si>
+  <si>
+    <t>Select "Strength and Mobility" and press "Remove Workout"</t>
+  </si>
+  <si>
+    <t>The favorite workout selected is no longer there</t>
   </si>
 </sst>
 </file>
@@ -541,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2EAB20-32A0-4FE8-83F9-C6D9C38DD1C3}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,87 +631,173 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
       <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>16</v>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
